--- a/Note-data structure.xlsx
+++ b/Note-data structure.xlsx
@@ -1,22 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_DFCBB05A887D7431A98D26D070C3CF473746D395" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E083F226-E039-4E90-901C-3ACBE98D2FDD}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>MC order</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,19 +66,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">for all test instances, the last MC is recharge MC; the second-last is rework MC </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>the length of recharge area is always 5; width of recharge area is always 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">for all test instances, the last MC is rework MC </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Charging area not included in algorithmic MC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,10 +140,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -136,11 +152,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -182,7 +206,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -214,9 +238,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,6 +290,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -423,81 +483,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="36.5" customWidth="1"/>
-    <col min="3" max="3" width="24.25" customWidth="1"/>
-    <col min="4" max="4" width="19.875" customWidth="1"/>
-    <col min="5" max="5" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="36.46484375" customWidth="1"/>
+    <col min="3" max="3" width="24.265625" customWidth="1"/>
+    <col min="4" max="4" width="19.86328125" customWidth="1"/>
+    <col min="5" max="5" width="20.73046875" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="22.125" customWidth="1"/>
-    <col min="8" max="8" width="23.5" customWidth="1"/>
+    <col min="7" max="7" width="22.1328125" customWidth="1"/>
+    <col min="8" max="8" width="23.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -506,12 +575,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -520,12 +589,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
